--- a/file/大模型数据集.xlsx
+++ b/file/大模型数据集.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资料\研一\项目\遥感大模型综述\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资料\研一\项目\遥感大模型综述\A review for remote sensing vision language models\A-Review-for-remote-sensing-vision-language-models\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C37EAC-2F58-4274-9EA3-6714A81E747B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1570F-F621-4236-9F74-114391E513ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1335" windowWidth="25575" windowHeight="12840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="2610" windowWidth="25575" windowHeight="12840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19794,7 +19794,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="52">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -19806,42 +19806,49 @@
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF24292E"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF191919"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF191B1F"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF2A2B2E"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF4B5563"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF111827"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -19849,18 +19856,21 @@
       <sz val="10"/>
       <color rgb="FF595959"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF262626"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -19868,17 +19878,20 @@
       <sz val="10"/>
       <color rgb="FFAFAFAF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -20016,85 +20029,6 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF24292E"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF191919"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF191B1F"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A2B2E"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF4B5563"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF111827"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF262626"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FFAFAFAF"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -34031,7 +33965,7 @@
       <c r="M352" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="51" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"下载中,已下载,未下载,"</formula1>
@@ -34499,9 +34433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="topRight" activeCell="A347" sqref="A347:XFD347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44799,7 +44733,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="51" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -44929,345 +44863,325 @@
     <hyperlink ref="J122" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
     <hyperlink ref="J123" r:id="rId127" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
     <hyperlink ref="J124" r:id="rId128" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
-    <hyperlink ref="J125" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
-    <hyperlink ref="J126" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
-    <hyperlink ref="J127" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
-    <hyperlink ref="J128" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
-    <hyperlink ref="J129" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
-    <hyperlink ref="J130" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
-    <hyperlink ref="J131" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
-    <hyperlink ref="J132" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
-    <hyperlink ref="J133" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
-    <hyperlink ref="J134" r:id="rId138" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
-    <hyperlink ref="J135" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
-    <hyperlink ref="J136" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
-    <hyperlink ref="J137" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
-    <hyperlink ref="J138" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
-    <hyperlink ref="J139" r:id="rId143" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
-    <hyperlink ref="J140" r:id="rId144" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
-    <hyperlink ref="J141" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
-    <hyperlink ref="L141" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
-    <hyperlink ref="J142" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
-    <hyperlink ref="L142" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
-    <hyperlink ref="J143" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
-    <hyperlink ref="J144" r:id="rId150" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
-    <hyperlink ref="L144" r:id="rId151" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
-    <hyperlink ref="J145" r:id="rId152" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
-    <hyperlink ref="J146" r:id="rId153" location="Datasets" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
-    <hyperlink ref="L146" r:id="rId154" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
-    <hyperlink ref="J147" r:id="rId155" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
-    <hyperlink ref="L147" r:id="rId156" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
-    <hyperlink ref="J148" r:id="rId157" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
-    <hyperlink ref="L148" r:id="rId158" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
-    <hyperlink ref="J149" r:id="rId159" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
-    <hyperlink ref="J150" r:id="rId160" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
-    <hyperlink ref="J151" r:id="rId161" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
-    <hyperlink ref="J152" r:id="rId162" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
-    <hyperlink ref="L152" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
-    <hyperlink ref="J153" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
-    <hyperlink ref="J154" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
-    <hyperlink ref="L154" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
-    <hyperlink ref="J155" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
-    <hyperlink ref="L155" r:id="rId168" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
-    <hyperlink ref="J156" r:id="rId169" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
-    <hyperlink ref="J157" r:id="rId170" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
-    <hyperlink ref="L157" r:id="rId171" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
-    <hyperlink ref="J158" r:id="rId172" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
-    <hyperlink ref="J159" r:id="rId173" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
-    <hyperlink ref="J160" r:id="rId174" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
-    <hyperlink ref="J161" r:id="rId175" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
-    <hyperlink ref="J162" r:id="rId176" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
-    <hyperlink ref="J163" r:id="rId177" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
-    <hyperlink ref="J164" r:id="rId178" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
-    <hyperlink ref="L164" r:id="rId179" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
-    <hyperlink ref="J165" r:id="rId180" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
-    <hyperlink ref="J166" r:id="rId181" display="http://www.msadc.cn/main/setsubDetail?id=1370312964720037889； http://www.msadc.cn/group1/M00/00/08/CgId02Bio4KAazc6AEZR3GfuVic489.pdf_x000a_" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
-    <hyperlink ref="J167" r:id="rId182" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
-    <hyperlink ref="J168" r:id="rId183" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
-    <hyperlink ref="L168" r:id="rId184" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
-    <hyperlink ref="J169" r:id="rId185" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
-    <hyperlink ref="J170" r:id="rId186" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
-    <hyperlink ref="J171" r:id="rId187" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
-    <hyperlink ref="J172" r:id="rId188" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
-    <hyperlink ref="J173" r:id="rId189" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
-    <hyperlink ref="J174" r:id="rId190" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
-    <hyperlink ref="J175" r:id="rId191" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
-    <hyperlink ref="J176" r:id="rId192" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
-    <hyperlink ref="J177" r:id="rId193" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
-    <hyperlink ref="L177" r:id="rId194" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
-    <hyperlink ref="J178" r:id="rId195" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
-    <hyperlink ref="J179" r:id="rId196" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
-    <hyperlink ref="L179" r:id="rId197" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
-    <hyperlink ref="J180" r:id="rId198" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
-    <hyperlink ref="L180" r:id="rId199" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
-    <hyperlink ref="J181" r:id="rId200" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
-    <hyperlink ref="L181" r:id="rId201" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
-    <hyperlink ref="J182" r:id="rId202" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
-    <hyperlink ref="L182" r:id="rId203" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
-    <hyperlink ref="J183" r:id="rId204" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
-    <hyperlink ref="L183" r:id="rId205" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
-    <hyperlink ref="J184" r:id="rId206" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
-    <hyperlink ref="L184" r:id="rId207" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
-    <hyperlink ref="J185" r:id="rId208" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
-    <hyperlink ref="J186" r:id="rId209" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
-    <hyperlink ref="J187" r:id="rId210" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
-    <hyperlink ref="L187" r:id="rId211" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
-    <hyperlink ref="J188" r:id="rId212" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
-    <hyperlink ref="L188" r:id="rId213" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
-    <hyperlink ref="J189" r:id="rId214" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
-    <hyperlink ref="L189" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
-    <hyperlink ref="J190" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
-    <hyperlink ref="L190" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
-    <hyperlink ref="J191" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
-    <hyperlink ref="L191" r:id="rId219" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
-    <hyperlink ref="J192" r:id="rId220" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
-    <hyperlink ref="L192" r:id="rId221" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
-    <hyperlink ref="J193" r:id="rId222" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
-    <hyperlink ref="L193" r:id="rId223" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
-    <hyperlink ref="J194" r:id="rId224" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
-    <hyperlink ref="L194" r:id="rId225" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
-    <hyperlink ref="J195" r:id="rId226" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
-    <hyperlink ref="L195" r:id="rId227" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
-    <hyperlink ref="J196" r:id="rId228" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
-    <hyperlink ref="L196" r:id="rId229" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
-    <hyperlink ref="J197" r:id="rId230" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
-    <hyperlink ref="L197" r:id="rId231" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
-    <hyperlink ref="J198" r:id="rId232" location="h.p_hQS2jYeaFpV0" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
-    <hyperlink ref="L198" r:id="rId233" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
-    <hyperlink ref="J199" r:id="rId234" location="h.p_hQS2jYeaFpV0" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
-    <hyperlink ref="L199" r:id="rId235" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
-    <hyperlink ref="J200" r:id="rId236" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
-    <hyperlink ref="L200" r:id="rId237" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
-    <hyperlink ref="J201" r:id="rId238" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
-    <hyperlink ref="L201" r:id="rId239" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
-    <hyperlink ref="J202" r:id="rId240" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
-    <hyperlink ref="L202" r:id="rId241" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
-    <hyperlink ref="J203" r:id="rId242" location="list/path=%2F" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
-    <hyperlink ref="J204" r:id="rId243" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
-    <hyperlink ref="J205" r:id="rId244" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
-    <hyperlink ref="J206" r:id="rId245" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
-    <hyperlink ref="J207" r:id="rId246" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
-    <hyperlink ref="J209" r:id="rId247" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
-    <hyperlink ref="J210" r:id="rId248" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
-    <hyperlink ref="J211" r:id="rId249" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
-    <hyperlink ref="J212" r:id="rId250" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
-    <hyperlink ref="J213" r:id="rId251" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
-    <hyperlink ref="L213" r:id="rId252" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
-    <hyperlink ref="J214" r:id="rId253" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
-    <hyperlink ref="L214" r:id="rId254" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
-    <hyperlink ref="J215" r:id="rId255" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
-    <hyperlink ref="L215" r:id="rId256" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
-    <hyperlink ref="J216" r:id="rId257" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
-    <hyperlink ref="L216" r:id="rId258" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
-    <hyperlink ref="J217" r:id="rId259" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
-    <hyperlink ref="L217" r:id="rId260" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
-    <hyperlink ref="J218" r:id="rId261" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
-    <hyperlink ref="L218" r:id="rId262" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
-    <hyperlink ref="J219" r:id="rId263" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
-    <hyperlink ref="L219" r:id="rId264" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
-    <hyperlink ref="J220" r:id="rId265" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
-    <hyperlink ref="J221" r:id="rId266" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
-    <hyperlink ref="J222" r:id="rId267" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
-    <hyperlink ref="L222" r:id="rId268" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
-    <hyperlink ref="J223" r:id="rId269" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
-    <hyperlink ref="J224" r:id="rId270" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
-    <hyperlink ref="L224" r:id="rId271" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
-    <hyperlink ref="J225" r:id="rId272" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
-    <hyperlink ref="L225" r:id="rId273" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
-    <hyperlink ref="J226" r:id="rId274" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
-    <hyperlink ref="L226" r:id="rId275" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
-    <hyperlink ref="J227" r:id="rId276" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
-    <hyperlink ref="L227" r:id="rId277" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
-    <hyperlink ref="J228" r:id="rId278" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
-    <hyperlink ref="L228" r:id="rId279" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
-    <hyperlink ref="J229" r:id="rId280" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
-    <hyperlink ref="L229" r:id="rId281" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
-    <hyperlink ref="J230" r:id="rId282" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
-    <hyperlink ref="L230" r:id="rId283" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
-    <hyperlink ref="J231" r:id="rId284" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
-    <hyperlink ref="L231" r:id="rId285" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
-    <hyperlink ref="J232" r:id="rId286" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
-    <hyperlink ref="L232" r:id="rId287" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
-    <hyperlink ref="J233" r:id="rId288" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
-    <hyperlink ref="L233" r:id="rId289" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
-    <hyperlink ref="J234" r:id="rId290" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
-    <hyperlink ref="L234" r:id="rId291" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
-    <hyperlink ref="J235" r:id="rId292" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
-    <hyperlink ref="L235" r:id="rId293" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
-    <hyperlink ref="J236" r:id="rId294" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
-    <hyperlink ref="J237" r:id="rId295" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
-    <hyperlink ref="L237" r:id="rId296" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
-    <hyperlink ref="J238" r:id="rId297" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
-    <hyperlink ref="L238" r:id="rId298" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
-    <hyperlink ref="J239" r:id="rId299" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
-    <hyperlink ref="L239" r:id="rId300" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
-    <hyperlink ref="J240" r:id="rId301" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
-    <hyperlink ref="L240" r:id="rId302" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
-    <hyperlink ref="J241" r:id="rId303" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
-    <hyperlink ref="L241" r:id="rId304" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
-    <hyperlink ref="J242" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
-    <hyperlink ref="L242" r:id="rId306" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
-    <hyperlink ref="J243" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
-    <hyperlink ref="J244" r:id="rId308" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
-    <hyperlink ref="L244" r:id="rId309" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
-    <hyperlink ref="J245" r:id="rId310" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
-    <hyperlink ref="L245" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
-    <hyperlink ref="J246" r:id="rId312" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
-    <hyperlink ref="L246" r:id="rId313" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
-    <hyperlink ref="J247" r:id="rId314" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
-    <hyperlink ref="L247" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
-    <hyperlink ref="J248" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
-    <hyperlink ref="L248" r:id="rId317" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
-    <hyperlink ref="J249" r:id="rId318" location="/info" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
-    <hyperlink ref="J250" r:id="rId319" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
-    <hyperlink ref="L250" r:id="rId320" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
-    <hyperlink ref="J251" r:id="rId321" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
-    <hyperlink ref="L251" r:id="rId322" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
-    <hyperlink ref="J252" r:id="rId323" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
-    <hyperlink ref="L252" r:id="rId324" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
-    <hyperlink ref="J253" r:id="rId325" xr:uid="{00000000-0004-0000-0100-000044010000}"/>
-    <hyperlink ref="J254" r:id="rId326" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
-    <hyperlink ref="J255" r:id="rId327" xr:uid="{00000000-0004-0000-0100-000046010000}"/>
-    <hyperlink ref="J256" r:id="rId328" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
-    <hyperlink ref="J257" r:id="rId329" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
-    <hyperlink ref="J258" r:id="rId330" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
-    <hyperlink ref="J259" r:id="rId331" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
-    <hyperlink ref="J260" r:id="rId332" xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
-    <hyperlink ref="J261" r:id="rId333" xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
-    <hyperlink ref="L261" r:id="rId334" xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
-    <hyperlink ref="J262" r:id="rId335" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
-    <hyperlink ref="J263" r:id="rId336" xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
-    <hyperlink ref="J264" r:id="rId337" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
-    <hyperlink ref="J265" r:id="rId338" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
-    <hyperlink ref="J266" r:id="rId339" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
-    <hyperlink ref="L266" r:id="rId340" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
-    <hyperlink ref="J267" r:id="rId341" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
-    <hyperlink ref="L267" r:id="rId342" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
-    <hyperlink ref="J268" r:id="rId343" xr:uid="{00000000-0004-0000-0100-000056010000}"/>
-    <hyperlink ref="L268" r:id="rId344" xr:uid="{00000000-0004-0000-0100-000057010000}"/>
-    <hyperlink ref="J269" r:id="rId345" xr:uid="{00000000-0004-0000-0100-000058010000}"/>
-    <hyperlink ref="L269" r:id="rId346" xr:uid="{00000000-0004-0000-0100-000059010000}"/>
-    <hyperlink ref="J270" r:id="rId347" xr:uid="{00000000-0004-0000-0100-00005A010000}"/>
-    <hyperlink ref="L270" r:id="rId348" xr:uid="{00000000-0004-0000-0100-00005B010000}"/>
-    <hyperlink ref="J271" r:id="rId349" xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
-    <hyperlink ref="L271" r:id="rId350" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
-    <hyperlink ref="J272" r:id="rId351" xr:uid="{00000000-0004-0000-0100-00005E010000}"/>
-    <hyperlink ref="L272" r:id="rId352" xr:uid="{00000000-0004-0000-0100-00005F010000}"/>
-    <hyperlink ref="J273" r:id="rId353" xr:uid="{00000000-0004-0000-0100-000060010000}"/>
-    <hyperlink ref="L273" r:id="rId354" xr:uid="{00000000-0004-0000-0100-000061010000}"/>
-    <hyperlink ref="J274" r:id="rId355" xr:uid="{00000000-0004-0000-0100-000062010000}"/>
-    <hyperlink ref="L274" r:id="rId356" xr:uid="{00000000-0004-0000-0100-000063010000}"/>
-    <hyperlink ref="J275" r:id="rId357" xr:uid="{00000000-0004-0000-0100-000064010000}"/>
-    <hyperlink ref="L275" r:id="rId358" xr:uid="{00000000-0004-0000-0100-000065010000}"/>
-    <hyperlink ref="J276" r:id="rId359" xr:uid="{00000000-0004-0000-0100-000066010000}"/>
-    <hyperlink ref="L276" r:id="rId360" xr:uid="{00000000-0004-0000-0100-000067010000}"/>
-    <hyperlink ref="J277" r:id="rId361" xr:uid="{00000000-0004-0000-0100-000068010000}"/>
-    <hyperlink ref="L277" r:id="rId362" xr:uid="{00000000-0004-0000-0100-000069010000}"/>
-    <hyperlink ref="J278" r:id="rId363" xr:uid="{00000000-0004-0000-0100-00006A010000}"/>
-    <hyperlink ref="L278" r:id="rId364" xr:uid="{00000000-0004-0000-0100-00006B010000}"/>
-    <hyperlink ref="J279" r:id="rId365" xr:uid="{00000000-0004-0000-0100-00006C010000}"/>
-    <hyperlink ref="L279" r:id="rId366" xr:uid="{00000000-0004-0000-0100-00006D010000}"/>
-    <hyperlink ref="J280" r:id="rId367" xr:uid="{00000000-0004-0000-0100-00006E010000}"/>
-    <hyperlink ref="J281" r:id="rId368" xr:uid="{00000000-0004-0000-0100-00006F010000}"/>
-    <hyperlink ref="J282" r:id="rId369" xr:uid="{00000000-0004-0000-0100-000070010000}"/>
-    <hyperlink ref="J286" r:id="rId370" xr:uid="{00000000-0004-0000-0100-000071010000}"/>
-    <hyperlink ref="L286" r:id="rId371" xr:uid="{00000000-0004-0000-0100-000072010000}"/>
-    <hyperlink ref="J287" r:id="rId372" xr:uid="{00000000-0004-0000-0100-000073010000}"/>
-    <hyperlink ref="L287" r:id="rId373" xr:uid="{00000000-0004-0000-0100-000074010000}"/>
-    <hyperlink ref="J288" r:id="rId374" xr:uid="{00000000-0004-0000-0100-000075010000}"/>
-    <hyperlink ref="L288" r:id="rId375" xr:uid="{00000000-0004-0000-0100-000076010000}"/>
-    <hyperlink ref="J289" r:id="rId376" location="dataset" xr:uid="{00000000-0004-0000-0100-000077010000}"/>
-    <hyperlink ref="L289" r:id="rId377" xr:uid="{00000000-0004-0000-0100-000078010000}"/>
-    <hyperlink ref="J290" r:id="rId378" location="dataset" xr:uid="{00000000-0004-0000-0100-000079010000}"/>
-    <hyperlink ref="L290" r:id="rId379" xr:uid="{00000000-0004-0000-0100-00007A010000}"/>
-    <hyperlink ref="J291" r:id="rId380" location="dataset" xr:uid="{00000000-0004-0000-0100-00007B010000}"/>
-    <hyperlink ref="L291" r:id="rId381" xr:uid="{00000000-0004-0000-0100-00007C010000}"/>
-    <hyperlink ref="J292" r:id="rId382" xr:uid="{00000000-0004-0000-0100-00007D010000}"/>
-    <hyperlink ref="L292" r:id="rId383" xr:uid="{00000000-0004-0000-0100-00007E010000}"/>
-    <hyperlink ref="J293" r:id="rId384" xr:uid="{00000000-0004-0000-0100-00007F010000}"/>
-    <hyperlink ref="L293" r:id="rId385" xr:uid="{00000000-0004-0000-0100-000080010000}"/>
-    <hyperlink ref="J294" r:id="rId386" xr:uid="{00000000-0004-0000-0100-000081010000}"/>
-    <hyperlink ref="L294" r:id="rId387" xr:uid="{00000000-0004-0000-0100-000082010000}"/>
-    <hyperlink ref="J295" r:id="rId388" xr:uid="{00000000-0004-0000-0100-000083010000}"/>
-    <hyperlink ref="L295" r:id="rId389" xr:uid="{00000000-0004-0000-0100-000084010000}"/>
-    <hyperlink ref="J296" r:id="rId390" xr:uid="{00000000-0004-0000-0100-000085010000}"/>
-    <hyperlink ref="L296" r:id="rId391" xr:uid="{00000000-0004-0000-0100-000086010000}"/>
-    <hyperlink ref="J297" r:id="rId392" xr:uid="{00000000-0004-0000-0100-000087010000}"/>
-    <hyperlink ref="L297" r:id="rId393" xr:uid="{00000000-0004-0000-0100-000088010000}"/>
-    <hyperlink ref="J298" r:id="rId394" xr:uid="{00000000-0004-0000-0100-000089010000}"/>
-    <hyperlink ref="L298" r:id="rId395" xr:uid="{00000000-0004-0000-0100-00008A010000}"/>
-    <hyperlink ref="J299" r:id="rId396" xr:uid="{00000000-0004-0000-0100-00008B010000}"/>
-    <hyperlink ref="L299" r:id="rId397" xr:uid="{00000000-0004-0000-0100-00008C010000}"/>
-    <hyperlink ref="J300" r:id="rId398" xr:uid="{00000000-0004-0000-0100-00008D010000}"/>
-    <hyperlink ref="L300" r:id="rId399" xr:uid="{00000000-0004-0000-0100-00008E010000}"/>
-    <hyperlink ref="J301" r:id="rId400" xr:uid="{00000000-0004-0000-0100-00008F010000}"/>
-    <hyperlink ref="L301" r:id="rId401" xr:uid="{00000000-0004-0000-0100-000090010000}"/>
-    <hyperlink ref="J302" r:id="rId402" xr:uid="{00000000-0004-0000-0100-000091010000}"/>
-    <hyperlink ref="L302" r:id="rId403" xr:uid="{00000000-0004-0000-0100-000092010000}"/>
-    <hyperlink ref="J303" r:id="rId404" xr:uid="{00000000-0004-0000-0100-000093010000}"/>
-    <hyperlink ref="L303" r:id="rId405" xr:uid="{00000000-0004-0000-0100-000094010000}"/>
-    <hyperlink ref="J304" r:id="rId406" xr:uid="{00000000-0004-0000-0100-000095010000}"/>
-    <hyperlink ref="L304" r:id="rId407" xr:uid="{00000000-0004-0000-0100-000096010000}"/>
-    <hyperlink ref="J305" r:id="rId408" xr:uid="{00000000-0004-0000-0100-000097010000}"/>
-    <hyperlink ref="L305" r:id="rId409" xr:uid="{00000000-0004-0000-0100-000098010000}"/>
-    <hyperlink ref="J306" r:id="rId410" xr:uid="{00000000-0004-0000-0100-000099010000}"/>
-    <hyperlink ref="L306" r:id="rId411" xr:uid="{00000000-0004-0000-0100-00009A010000}"/>
-    <hyperlink ref="J307" r:id="rId412" xr:uid="{00000000-0004-0000-0100-00009B010000}"/>
-    <hyperlink ref="L307" r:id="rId413" xr:uid="{00000000-0004-0000-0100-00009C010000}"/>
-    <hyperlink ref="J308" r:id="rId414" xr:uid="{00000000-0004-0000-0100-00009D010000}"/>
-    <hyperlink ref="L308" r:id="rId415" xr:uid="{00000000-0004-0000-0100-00009E010000}"/>
-    <hyperlink ref="J309" r:id="rId416" xr:uid="{00000000-0004-0000-0100-00009F010000}"/>
-    <hyperlink ref="L309" r:id="rId417" xr:uid="{00000000-0004-0000-0100-0000A0010000}"/>
-    <hyperlink ref="J310" r:id="rId418" xr:uid="{00000000-0004-0000-0100-0000A1010000}"/>
-    <hyperlink ref="L310" r:id="rId419" xr:uid="{00000000-0004-0000-0100-0000A2010000}"/>
-    <hyperlink ref="J311" r:id="rId420" xr:uid="{00000000-0004-0000-0100-0000A3010000}"/>
-    <hyperlink ref="L311" r:id="rId421" xr:uid="{00000000-0004-0000-0100-0000A4010000}"/>
-    <hyperlink ref="J312" r:id="rId422" xr:uid="{00000000-0004-0000-0100-0000A5010000}"/>
-    <hyperlink ref="L312" r:id="rId423" xr:uid="{00000000-0004-0000-0100-0000A6010000}"/>
-    <hyperlink ref="J313" r:id="rId424" xr:uid="{00000000-0004-0000-0100-0000A7010000}"/>
-    <hyperlink ref="L313" r:id="rId425" xr:uid="{00000000-0004-0000-0100-0000A8010000}"/>
-    <hyperlink ref="J314" r:id="rId426" xr:uid="{00000000-0004-0000-0100-0000A9010000}"/>
-    <hyperlink ref="L314" r:id="rId427" xr:uid="{00000000-0004-0000-0100-0000AA010000}"/>
-    <hyperlink ref="J315" r:id="rId428" xr:uid="{00000000-0004-0000-0100-0000AB010000}"/>
-    <hyperlink ref="L315" r:id="rId429" xr:uid="{00000000-0004-0000-0100-0000AC010000}"/>
-    <hyperlink ref="J316" r:id="rId430" xr:uid="{00000000-0004-0000-0100-0000AD010000}"/>
-    <hyperlink ref="J317" r:id="rId431" xr:uid="{00000000-0004-0000-0100-0000AE010000}"/>
-    <hyperlink ref="J318" r:id="rId432" xr:uid="{00000000-0004-0000-0100-0000AF010000}"/>
-    <hyperlink ref="J319" r:id="rId433" xr:uid="{00000000-0004-0000-0100-0000B0010000}"/>
-    <hyperlink ref="J320" r:id="rId434" xr:uid="{00000000-0004-0000-0100-0000B1010000}"/>
-    <hyperlink ref="J321" r:id="rId435" xr:uid="{00000000-0004-0000-0100-0000B2010000}"/>
-    <hyperlink ref="J322" r:id="rId436" xr:uid="{00000000-0004-0000-0100-0000B3010000}"/>
-    <hyperlink ref="J323" r:id="rId437" xr:uid="{00000000-0004-0000-0100-0000B4010000}"/>
-    <hyperlink ref="J324" r:id="rId438" xr:uid="{00000000-0004-0000-0100-0000B5010000}"/>
-    <hyperlink ref="J325" r:id="rId439" xr:uid="{00000000-0004-0000-0100-0000B6010000}"/>
-    <hyperlink ref="J326" r:id="rId440" xr:uid="{00000000-0004-0000-0100-0000B7010000}"/>
-    <hyperlink ref="J327" r:id="rId441" xr:uid="{00000000-0004-0000-0100-0000B8010000}"/>
-    <hyperlink ref="J328" r:id="rId442" xr:uid="{00000000-0004-0000-0100-0000B9010000}"/>
-    <hyperlink ref="J329" r:id="rId443" xr:uid="{00000000-0004-0000-0100-0000BA010000}"/>
-    <hyperlink ref="J330" r:id="rId444" xr:uid="{00000000-0004-0000-0100-0000BB010000}"/>
-    <hyperlink ref="J331" r:id="rId445" xr:uid="{00000000-0004-0000-0100-0000BC010000}"/>
-    <hyperlink ref="J332" r:id="rId446" xr:uid="{00000000-0004-0000-0100-0000BD010000}"/>
-    <hyperlink ref="J333" r:id="rId447" xr:uid="{00000000-0004-0000-0100-0000BE010000}"/>
-    <hyperlink ref="J334" r:id="rId448" xr:uid="{00000000-0004-0000-0100-0000BF010000}"/>
-    <hyperlink ref="J335" r:id="rId449" location="list/path=%2F" xr:uid="{00000000-0004-0000-0100-0000C0010000}"/>
-    <hyperlink ref="J336" r:id="rId450" xr:uid="{00000000-0004-0000-0100-0000C1010000}"/>
-    <hyperlink ref="J337" r:id="rId451" xr:uid="{00000000-0004-0000-0100-0000C2010000}"/>
-    <hyperlink ref="J338" r:id="rId452" xr:uid="{00000000-0004-0000-0100-0000C3010000}"/>
-    <hyperlink ref="J339" r:id="rId453" xr:uid="{00000000-0004-0000-0100-0000C4010000}"/>
-    <hyperlink ref="J340" r:id="rId454" xr:uid="{00000000-0004-0000-0100-0000C5010000}"/>
-    <hyperlink ref="L340" r:id="rId455" xr:uid="{00000000-0004-0000-0100-0000C6010000}"/>
-    <hyperlink ref="J341" r:id="rId456" xr:uid="{00000000-0004-0000-0100-0000C7010000}"/>
-    <hyperlink ref="L341" r:id="rId457" xr:uid="{00000000-0004-0000-0100-0000C8010000}"/>
-    <hyperlink ref="J342" r:id="rId458" xr:uid="{00000000-0004-0000-0100-0000C9010000}"/>
-    <hyperlink ref="L342" r:id="rId459" xr:uid="{00000000-0004-0000-0100-0000CA010000}"/>
-    <hyperlink ref="J343" r:id="rId460" xr:uid="{00000000-0004-0000-0100-0000CB010000}"/>
-    <hyperlink ref="L343" r:id="rId461" xr:uid="{00000000-0004-0000-0100-0000CC010000}"/>
-    <hyperlink ref="J344" r:id="rId462" xr:uid="{00000000-0004-0000-0100-0000CD010000}"/>
-    <hyperlink ref="L344" r:id="rId463" xr:uid="{00000000-0004-0000-0100-0000CE010000}"/>
-    <hyperlink ref="J345" r:id="rId464" xr:uid="{00000000-0004-0000-0100-0000CF010000}"/>
-    <hyperlink ref="L345" r:id="rId465" xr:uid="{00000000-0004-0000-0100-0000D0010000}"/>
-    <hyperlink ref="J346" r:id="rId466" xr:uid="{00000000-0004-0000-0100-0000D1010000}"/>
-    <hyperlink ref="L346" r:id="rId467" xr:uid="{00000000-0004-0000-0100-0000D2010000}"/>
+    <hyperlink ref="J127" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="J128" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="J129" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="J130" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="J131" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="J132" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="J133" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="J134" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="J135" r:id="rId137" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="J136" r:id="rId138" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="J137" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="J138" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="J139" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="J140" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="J141" r:id="rId143" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="L141" r:id="rId144" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="J142" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="L142" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="J143" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="J144" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="L144" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="J145" r:id="rId150" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="J146" r:id="rId151" location="Datasets" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="L146" r:id="rId152" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="J147" r:id="rId153" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="L147" r:id="rId154" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="J148" r:id="rId155" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="L148" r:id="rId156" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="J149" r:id="rId157" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="J150" r:id="rId158" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="J151" r:id="rId159" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="J152" r:id="rId160" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="L152" r:id="rId161" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="J153" r:id="rId162" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="J154" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="L154" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="J155" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="L155" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="J156" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="J157" r:id="rId168" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="L157" r:id="rId169" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="J158" r:id="rId170" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="J159" r:id="rId171" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="J160" r:id="rId172" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="J161" r:id="rId173" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="J162" r:id="rId174" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="J163" r:id="rId175" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="J164" r:id="rId176" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="L164" r:id="rId177" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="J165" r:id="rId178" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="J166" r:id="rId179" display="http://www.msadc.cn/main/setsubDetail?id=1370312964720037889； http://www.msadc.cn/group1/M00/00/08/CgId02Bio4KAazc6AEZR3GfuVic489.pdf_x000a_" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="J167" r:id="rId180" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="J168" r:id="rId181" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="L168" r:id="rId182" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="J169" r:id="rId183" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="J170" r:id="rId184" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="J171" r:id="rId185" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="J172" r:id="rId186" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="J173" r:id="rId187" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="J174" r:id="rId188" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="J175" r:id="rId189" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="J176" r:id="rId190" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="J177" r:id="rId191" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="L177" r:id="rId192" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="J178" r:id="rId193" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="J179" r:id="rId194" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="L179" r:id="rId195" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="J180" r:id="rId196" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="L180" r:id="rId197" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="J181" r:id="rId198" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="L181" r:id="rId199" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="J182" r:id="rId200" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="L182" r:id="rId201" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="J183" r:id="rId202" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="L183" r:id="rId203" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="J184" r:id="rId204" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="L184" r:id="rId205" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="J185" r:id="rId206" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="J186" r:id="rId207" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="J187" r:id="rId208" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="L187" r:id="rId209" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="J188" r:id="rId210" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="L188" r:id="rId211" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="J189" r:id="rId212" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="L189" r:id="rId213" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="J190" r:id="rId214" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="L190" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="J191" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="L191" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="J192" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="L192" r:id="rId219" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="J193" r:id="rId220" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="L193" r:id="rId221" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="J194" r:id="rId222" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="L194" r:id="rId223" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="J195" r:id="rId224" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="L195" r:id="rId225" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="J196" r:id="rId226" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="L196" r:id="rId227" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
+    <hyperlink ref="J197" r:id="rId228" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
+    <hyperlink ref="L197" r:id="rId229" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
+    <hyperlink ref="J198" r:id="rId230" location="h.p_hQS2jYeaFpV0" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
+    <hyperlink ref="L198" r:id="rId231" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
+    <hyperlink ref="J199" r:id="rId232" location="h.p_hQS2jYeaFpV0" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
+    <hyperlink ref="L199" r:id="rId233" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
+    <hyperlink ref="J200" r:id="rId234" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
+    <hyperlink ref="L200" r:id="rId235" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
+    <hyperlink ref="J201" r:id="rId236" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
+    <hyperlink ref="L201" r:id="rId237" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
+    <hyperlink ref="J202" r:id="rId238" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
+    <hyperlink ref="L202" r:id="rId239" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
+    <hyperlink ref="J203" r:id="rId240" location="list/path=%2F" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
+    <hyperlink ref="J204" r:id="rId241" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
+    <hyperlink ref="J205" r:id="rId242" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
+    <hyperlink ref="J206" r:id="rId243" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
+    <hyperlink ref="J207" r:id="rId244" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
+    <hyperlink ref="J209" r:id="rId245" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
+    <hyperlink ref="J210" r:id="rId246" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
+    <hyperlink ref="J211" r:id="rId247" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
+    <hyperlink ref="J212" r:id="rId248" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
+    <hyperlink ref="J213" r:id="rId249" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
+    <hyperlink ref="L213" r:id="rId250" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
+    <hyperlink ref="J214" r:id="rId251" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
+    <hyperlink ref="L214" r:id="rId252" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
+    <hyperlink ref="J215" r:id="rId253" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
+    <hyperlink ref="L215" r:id="rId254" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
+    <hyperlink ref="J216" r:id="rId255" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
+    <hyperlink ref="L216" r:id="rId256" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
+    <hyperlink ref="J217" r:id="rId257" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
+    <hyperlink ref="L217" r:id="rId258" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
+    <hyperlink ref="J218" r:id="rId259" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
+    <hyperlink ref="L218" r:id="rId260" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
+    <hyperlink ref="J219" r:id="rId261" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
+    <hyperlink ref="L219" r:id="rId262" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
+    <hyperlink ref="J220" r:id="rId263" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
+    <hyperlink ref="J221" r:id="rId264" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
+    <hyperlink ref="J222" r:id="rId265" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
+    <hyperlink ref="L222" r:id="rId266" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
+    <hyperlink ref="J223" r:id="rId267" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
+    <hyperlink ref="J224" r:id="rId268" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
+    <hyperlink ref="L224" r:id="rId269" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
+    <hyperlink ref="J225" r:id="rId270" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
+    <hyperlink ref="L225" r:id="rId271" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
+    <hyperlink ref="J226" r:id="rId272" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
+    <hyperlink ref="L226" r:id="rId273" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
+    <hyperlink ref="J227" r:id="rId274" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
+    <hyperlink ref="L227" r:id="rId275" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
+    <hyperlink ref="J228" r:id="rId276" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
+    <hyperlink ref="L228" r:id="rId277" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
+    <hyperlink ref="J229" r:id="rId278" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
+    <hyperlink ref="L229" r:id="rId279" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
+    <hyperlink ref="J230" r:id="rId280" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
+    <hyperlink ref="L230" r:id="rId281" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
+    <hyperlink ref="J231" r:id="rId282" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
+    <hyperlink ref="L231" r:id="rId283" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
+    <hyperlink ref="J232" r:id="rId284" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
+    <hyperlink ref="L232" r:id="rId285" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
+    <hyperlink ref="J233" r:id="rId286" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
+    <hyperlink ref="L233" r:id="rId287" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
+    <hyperlink ref="J234" r:id="rId288" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
+    <hyperlink ref="L234" r:id="rId289" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
+    <hyperlink ref="J235" r:id="rId290" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
+    <hyperlink ref="L235" r:id="rId291" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
+    <hyperlink ref="J236" r:id="rId292" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
+    <hyperlink ref="J237" r:id="rId293" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
+    <hyperlink ref="J238" r:id="rId294" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
+    <hyperlink ref="L238" r:id="rId295" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
+    <hyperlink ref="J239" r:id="rId296" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
+    <hyperlink ref="L239" r:id="rId297" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
+    <hyperlink ref="J240" r:id="rId298" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
+    <hyperlink ref="L240" r:id="rId299" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
+    <hyperlink ref="J241" r:id="rId300" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
+    <hyperlink ref="L241" r:id="rId301" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
+    <hyperlink ref="J242" r:id="rId302" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
+    <hyperlink ref="L242" r:id="rId303" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
+    <hyperlink ref="J243" r:id="rId304" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
+    <hyperlink ref="J244" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
+    <hyperlink ref="L244" r:id="rId306" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
+    <hyperlink ref="J245" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
+    <hyperlink ref="L245" r:id="rId308" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
+    <hyperlink ref="J246" r:id="rId309" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
+    <hyperlink ref="L246" r:id="rId310" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
+    <hyperlink ref="J247" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
+    <hyperlink ref="L247" r:id="rId312" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
+    <hyperlink ref="J248" r:id="rId313" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
+    <hyperlink ref="L248" r:id="rId314" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
+    <hyperlink ref="J249" r:id="rId315" location="/info" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
+    <hyperlink ref="J250" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
+    <hyperlink ref="L250" r:id="rId317" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
+    <hyperlink ref="J251" r:id="rId318" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
+    <hyperlink ref="L251" r:id="rId319" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
+    <hyperlink ref="J252" r:id="rId320" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
+    <hyperlink ref="L252" r:id="rId321" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
+    <hyperlink ref="J253" r:id="rId322" xr:uid="{00000000-0004-0000-0100-000044010000}"/>
+    <hyperlink ref="J254" r:id="rId323" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
+    <hyperlink ref="J255" r:id="rId324" xr:uid="{00000000-0004-0000-0100-000046010000}"/>
+    <hyperlink ref="J256" r:id="rId325" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
+    <hyperlink ref="J257" r:id="rId326" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
+    <hyperlink ref="J258" r:id="rId327" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
+    <hyperlink ref="J259" r:id="rId328" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
+    <hyperlink ref="J260" r:id="rId329" xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
+    <hyperlink ref="J261" r:id="rId330" xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
+    <hyperlink ref="L261" r:id="rId331" xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
+    <hyperlink ref="J262" r:id="rId332" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
+    <hyperlink ref="J263" r:id="rId333" xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
+    <hyperlink ref="J264" r:id="rId334" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
+    <hyperlink ref="J265" r:id="rId335" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
+    <hyperlink ref="J266" r:id="rId336" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
+    <hyperlink ref="L266" r:id="rId337" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
+    <hyperlink ref="J267" r:id="rId338" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
+    <hyperlink ref="L267" r:id="rId339" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
+    <hyperlink ref="J268" r:id="rId340" xr:uid="{00000000-0004-0000-0100-000056010000}"/>
+    <hyperlink ref="L268" r:id="rId341" xr:uid="{00000000-0004-0000-0100-000057010000}"/>
+    <hyperlink ref="J269" r:id="rId342" xr:uid="{00000000-0004-0000-0100-000058010000}"/>
+    <hyperlink ref="L269" r:id="rId343" xr:uid="{00000000-0004-0000-0100-000059010000}"/>
+    <hyperlink ref="J270" r:id="rId344" xr:uid="{00000000-0004-0000-0100-00005A010000}"/>
+    <hyperlink ref="L270" r:id="rId345" xr:uid="{00000000-0004-0000-0100-00005B010000}"/>
+    <hyperlink ref="J271" r:id="rId346" xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
+    <hyperlink ref="L271" r:id="rId347" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
+    <hyperlink ref="J272" r:id="rId348" xr:uid="{00000000-0004-0000-0100-00005E010000}"/>
+    <hyperlink ref="L272" r:id="rId349" xr:uid="{00000000-0004-0000-0100-00005F010000}"/>
+    <hyperlink ref="J273" r:id="rId350" xr:uid="{00000000-0004-0000-0100-000060010000}"/>
+    <hyperlink ref="L273" r:id="rId351" xr:uid="{00000000-0004-0000-0100-000061010000}"/>
+    <hyperlink ref="J274" r:id="rId352" xr:uid="{00000000-0004-0000-0100-000062010000}"/>
+    <hyperlink ref="L274" r:id="rId353" xr:uid="{00000000-0004-0000-0100-000063010000}"/>
+    <hyperlink ref="J275" r:id="rId354" xr:uid="{00000000-0004-0000-0100-000064010000}"/>
+    <hyperlink ref="L275" r:id="rId355" xr:uid="{00000000-0004-0000-0100-000065010000}"/>
+    <hyperlink ref="J276" r:id="rId356" xr:uid="{00000000-0004-0000-0100-000066010000}"/>
+    <hyperlink ref="L276" r:id="rId357" xr:uid="{00000000-0004-0000-0100-000067010000}"/>
+    <hyperlink ref="J277" r:id="rId358" xr:uid="{00000000-0004-0000-0100-000068010000}"/>
+    <hyperlink ref="L277" r:id="rId359" xr:uid="{00000000-0004-0000-0100-000069010000}"/>
+    <hyperlink ref="J278" r:id="rId360" xr:uid="{00000000-0004-0000-0100-00006A010000}"/>
+    <hyperlink ref="L278" r:id="rId361" xr:uid="{00000000-0004-0000-0100-00006B010000}"/>
+    <hyperlink ref="J279" r:id="rId362" xr:uid="{00000000-0004-0000-0100-00006C010000}"/>
+    <hyperlink ref="L279" r:id="rId363" xr:uid="{00000000-0004-0000-0100-00006D010000}"/>
+    <hyperlink ref="J280" r:id="rId364" xr:uid="{00000000-0004-0000-0100-00006E010000}"/>
+    <hyperlink ref="J281" r:id="rId365" xr:uid="{00000000-0004-0000-0100-00006F010000}"/>
+    <hyperlink ref="J282" r:id="rId366" xr:uid="{00000000-0004-0000-0100-000070010000}"/>
+    <hyperlink ref="J286" r:id="rId367" xr:uid="{00000000-0004-0000-0100-000071010000}"/>
+    <hyperlink ref="L286" r:id="rId368" xr:uid="{00000000-0004-0000-0100-000072010000}"/>
+    <hyperlink ref="J287" r:id="rId369" xr:uid="{00000000-0004-0000-0100-000073010000}"/>
+    <hyperlink ref="L287" r:id="rId370" xr:uid="{00000000-0004-0000-0100-000074010000}"/>
+    <hyperlink ref="J288" r:id="rId371" xr:uid="{00000000-0004-0000-0100-000075010000}"/>
+    <hyperlink ref="L288" r:id="rId372" xr:uid="{00000000-0004-0000-0100-000076010000}"/>
+    <hyperlink ref="J289" r:id="rId373" location="dataset" xr:uid="{00000000-0004-0000-0100-000077010000}"/>
+    <hyperlink ref="L289" r:id="rId374" xr:uid="{00000000-0004-0000-0100-000078010000}"/>
+    <hyperlink ref="J290" r:id="rId375" location="dataset" xr:uid="{00000000-0004-0000-0100-000079010000}"/>
+    <hyperlink ref="L290" r:id="rId376" xr:uid="{00000000-0004-0000-0100-00007A010000}"/>
+    <hyperlink ref="J291" r:id="rId377" location="dataset" xr:uid="{00000000-0004-0000-0100-00007B010000}"/>
+    <hyperlink ref="L291" r:id="rId378" xr:uid="{00000000-0004-0000-0100-00007C010000}"/>
+    <hyperlink ref="J292" r:id="rId379" xr:uid="{00000000-0004-0000-0100-00007D010000}"/>
+    <hyperlink ref="L292" r:id="rId380" xr:uid="{00000000-0004-0000-0100-00007E010000}"/>
+    <hyperlink ref="J293" r:id="rId381" xr:uid="{00000000-0004-0000-0100-00007F010000}"/>
+    <hyperlink ref="L293" r:id="rId382" xr:uid="{00000000-0004-0000-0100-000080010000}"/>
+    <hyperlink ref="J294" r:id="rId383" xr:uid="{00000000-0004-0000-0100-000081010000}"/>
+    <hyperlink ref="L294" r:id="rId384" xr:uid="{00000000-0004-0000-0100-000082010000}"/>
+    <hyperlink ref="J295" r:id="rId385" xr:uid="{00000000-0004-0000-0100-000083010000}"/>
+    <hyperlink ref="L295" r:id="rId386" xr:uid="{00000000-0004-0000-0100-000084010000}"/>
+    <hyperlink ref="J296" r:id="rId387" xr:uid="{00000000-0004-0000-0100-000085010000}"/>
+    <hyperlink ref="L296" r:id="rId388" xr:uid="{00000000-0004-0000-0100-000086010000}"/>
+    <hyperlink ref="J297" r:id="rId389" xr:uid="{00000000-0004-0000-0100-000087010000}"/>
+    <hyperlink ref="L297" r:id="rId390" xr:uid="{00000000-0004-0000-0100-000088010000}"/>
+    <hyperlink ref="J298" r:id="rId391" xr:uid="{00000000-0004-0000-0100-000089010000}"/>
+    <hyperlink ref="L298" r:id="rId392" xr:uid="{00000000-0004-0000-0100-00008A010000}"/>
+    <hyperlink ref="J299" r:id="rId393" xr:uid="{00000000-0004-0000-0100-00008B010000}"/>
+    <hyperlink ref="L299" r:id="rId394" xr:uid="{00000000-0004-0000-0100-00008C010000}"/>
+    <hyperlink ref="J300" r:id="rId395" xr:uid="{00000000-0004-0000-0100-00008D010000}"/>
+    <hyperlink ref="L300" r:id="rId396" xr:uid="{00000000-0004-0000-0100-00008E010000}"/>
+    <hyperlink ref="J301" r:id="rId397" xr:uid="{00000000-0004-0000-0100-00008F010000}"/>
+    <hyperlink ref="L301" r:id="rId398" xr:uid="{00000000-0004-0000-0100-000090010000}"/>
+    <hyperlink ref="J302" r:id="rId399" xr:uid="{00000000-0004-0000-0100-000091010000}"/>
+    <hyperlink ref="L302" r:id="rId400" xr:uid="{00000000-0004-0000-0100-000092010000}"/>
+    <hyperlink ref="J303" r:id="rId401" xr:uid="{00000000-0004-0000-0100-000093010000}"/>
+    <hyperlink ref="L303" r:id="rId402" xr:uid="{00000000-0004-0000-0100-000094010000}"/>
+    <hyperlink ref="J304" r:id="rId403" xr:uid="{00000000-0004-0000-0100-000095010000}"/>
+    <hyperlink ref="L304" r:id="rId404" xr:uid="{00000000-0004-0000-0100-000096010000}"/>
+    <hyperlink ref="J305" r:id="rId405" xr:uid="{00000000-0004-0000-0100-000097010000}"/>
+    <hyperlink ref="L305" r:id="rId406" xr:uid="{00000000-0004-0000-0100-000098010000}"/>
+    <hyperlink ref="J306" r:id="rId407" xr:uid="{00000000-0004-0000-0100-000099010000}"/>
+    <hyperlink ref="L306" r:id="rId408" xr:uid="{00000000-0004-0000-0100-00009A010000}"/>
+    <hyperlink ref="J307" r:id="rId409" xr:uid="{00000000-0004-0000-0100-00009B010000}"/>
+    <hyperlink ref="L307" r:id="rId410" xr:uid="{00000000-0004-0000-0100-00009C010000}"/>
+    <hyperlink ref="J308" r:id="rId411" xr:uid="{00000000-0004-0000-0100-00009D010000}"/>
+    <hyperlink ref="L308" r:id="rId412" xr:uid="{00000000-0004-0000-0100-00009E010000}"/>
+    <hyperlink ref="J309" r:id="rId413" xr:uid="{00000000-0004-0000-0100-00009F010000}"/>
+    <hyperlink ref="L309" r:id="rId414" xr:uid="{00000000-0004-0000-0100-0000A0010000}"/>
+    <hyperlink ref="J310" r:id="rId415" xr:uid="{00000000-0004-0000-0100-0000A1010000}"/>
+    <hyperlink ref="L310" r:id="rId416" xr:uid="{00000000-0004-0000-0100-0000A2010000}"/>
+    <hyperlink ref="J311" r:id="rId417" xr:uid="{00000000-0004-0000-0100-0000A3010000}"/>
+    <hyperlink ref="L311" r:id="rId418" xr:uid="{00000000-0004-0000-0100-0000A4010000}"/>
+    <hyperlink ref="J312" r:id="rId419" xr:uid="{00000000-0004-0000-0100-0000A5010000}"/>
+    <hyperlink ref="L312" r:id="rId420" xr:uid="{00000000-0004-0000-0100-0000A6010000}"/>
+    <hyperlink ref="J313" r:id="rId421" xr:uid="{00000000-0004-0000-0100-0000A7010000}"/>
+    <hyperlink ref="L313" r:id="rId422" xr:uid="{00000000-0004-0000-0100-0000A8010000}"/>
+    <hyperlink ref="J314" r:id="rId423" xr:uid="{00000000-0004-0000-0100-0000A9010000}"/>
+    <hyperlink ref="L314" r:id="rId424" xr:uid="{00000000-0004-0000-0100-0000AA010000}"/>
+    <hyperlink ref="J315" r:id="rId425" xr:uid="{00000000-0004-0000-0100-0000AB010000}"/>
+    <hyperlink ref="L315" r:id="rId426" xr:uid="{00000000-0004-0000-0100-0000AC010000}"/>
+    <hyperlink ref="J316" r:id="rId427" xr:uid="{00000000-0004-0000-0100-0000AD010000}"/>
+    <hyperlink ref="J333" r:id="rId428" xr:uid="{00000000-0004-0000-0100-0000BE010000}"/>
+    <hyperlink ref="J334" r:id="rId429" xr:uid="{00000000-0004-0000-0100-0000BF010000}"/>
+    <hyperlink ref="J335" r:id="rId430" location="list/path=%2F" xr:uid="{00000000-0004-0000-0100-0000C0010000}"/>
+    <hyperlink ref="J336" r:id="rId431" xr:uid="{00000000-0004-0000-0100-0000C1010000}"/>
+    <hyperlink ref="J338" r:id="rId432" xr:uid="{00000000-0004-0000-0100-0000C3010000}"/>
+    <hyperlink ref="J339" r:id="rId433" xr:uid="{00000000-0004-0000-0100-0000C4010000}"/>
+    <hyperlink ref="J340" r:id="rId434" xr:uid="{00000000-0004-0000-0100-0000C5010000}"/>
+    <hyperlink ref="L340" r:id="rId435" xr:uid="{00000000-0004-0000-0100-0000C6010000}"/>
+    <hyperlink ref="J341" r:id="rId436" xr:uid="{00000000-0004-0000-0100-0000C7010000}"/>
+    <hyperlink ref="L341" r:id="rId437" xr:uid="{00000000-0004-0000-0100-0000C8010000}"/>
+    <hyperlink ref="J342" r:id="rId438" xr:uid="{00000000-0004-0000-0100-0000C9010000}"/>
+    <hyperlink ref="L342" r:id="rId439" xr:uid="{00000000-0004-0000-0100-0000CA010000}"/>
+    <hyperlink ref="J343" r:id="rId440" xr:uid="{00000000-0004-0000-0100-0000CB010000}"/>
+    <hyperlink ref="L343" r:id="rId441" xr:uid="{00000000-0004-0000-0100-0000CC010000}"/>
+    <hyperlink ref="J344" r:id="rId442" xr:uid="{00000000-0004-0000-0100-0000CD010000}"/>
+    <hyperlink ref="L344" r:id="rId443" xr:uid="{00000000-0004-0000-0100-0000CE010000}"/>
+    <hyperlink ref="J345" r:id="rId444" xr:uid="{00000000-0004-0000-0100-0000CF010000}"/>
+    <hyperlink ref="L345" r:id="rId445" xr:uid="{00000000-0004-0000-0100-0000D0010000}"/>
+    <hyperlink ref="J346" r:id="rId446" xr:uid="{00000000-0004-0000-0100-0000D1010000}"/>
+    <hyperlink ref="L346" r:id="rId447" xr:uid="{00000000-0004-0000-0100-0000D2010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
